--- a/info/metricas/NN/TANH/NN2.xlsx
+++ b/info/metricas/NN/TANH/NN2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1466.794311523438</v>
+        <v>0.6959340990280468</v>
       </c>
       <c r="C2" t="n">
-        <v>114441.9704555124</v>
+        <v>113067.2686516227</v>
       </c>
       <c r="D2" t="n">
-        <v>222.520647886863</v>
+        <v>220.9818838362915</v>
       </c>
       <c r="E2" t="n">
-        <v>1131294.973856812</v>
+        <v>133.3124896240234</v>
       </c>
       <c r="F2" t="n">
-        <v>128.9369567871094</v>
+        <v>1123471.897423706</v>
       </c>
       <c r="G2" t="n">
-        <v>0.696019414303982</v>
+        <v>1519.7421875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7056624384012269</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.7040420365215604</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.428634957514778e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-48804.0339629069</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1498.521865234375</v>
+        <v>0.6891504598209903</v>
       </c>
       <c r="C3" t="n">
-        <v>118007.9503883578</v>
+        <v>109327.6502847653</v>
       </c>
       <c r="D3" t="n">
-        <v>225.3615058621602</v>
+        <v>219.6255385560187</v>
       </c>
       <c r="E3" t="n">
-        <v>1145737.895803223</v>
+        <v>132.7938232421875</v>
       </c>
       <c r="F3" t="n">
-        <v>132.1559381103516</v>
+        <v>1116576.238018799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6862007120679032</v>
+        <v>1496.703017578125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6934702411486753</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.6937460415790402</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.972224791713872e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-42079.91998938302</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1437.10154296875</v>
+        <v>0.6871249355892288</v>
       </c>
       <c r="C4" t="n">
-        <v>119858.7994452782</v>
+        <v>112085.9066300152</v>
       </c>
       <c r="D4" t="n">
-        <v>225.4511047993562</v>
+        <v>221.2547934134038</v>
       </c>
       <c r="E4" t="n">
-        <v>1146193.416799927</v>
+        <v>131.8958728027344</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6711364746094</v>
+        <v>1124859.369713745</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6868223726539942</v>
+        <v>1479.623125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6930430529804235</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.6904278829205469</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.62527500189277e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-47116.81834962031</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1526.212231445313</v>
+        <v>0.6945187919342457</v>
       </c>
       <c r="C5" t="n">
-        <v>122457.9425849562</v>
+        <v>120456.1032012618</v>
       </c>
       <c r="D5" t="n">
-        <v>227.5243217822419</v>
+        <v>227.7182538352024</v>
       </c>
       <c r="E5" t="n">
-        <v>1156733.651940918</v>
+        <v>133.2723217773437</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0198071289063</v>
+        <v>1157719.602498169</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6859353873018246</v>
+        <v>1494.307534179688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6919245869678008</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.7036431855543095</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.534463289608536e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-55327.00231721958</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1523.583740234375</v>
+        <v>0.6972631781471172</v>
       </c>
       <c r="C6" t="n">
-        <v>113841.1362241811</v>
+        <v>111150.4514485315</v>
       </c>
       <c r="D6" t="n">
-        <v>217.6806953369237</v>
+        <v>218.0353462373238</v>
       </c>
       <c r="E6" t="n">
-        <v>1106470.974397583</v>
+        <v>130.2917785644531</v>
       </c>
       <c r="F6" t="n">
-        <v>125.0066259765625</v>
+        <v>1108273.664924317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6974615550258192</v>
+        <v>1440.951396484375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7068271470665246</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7062404319064325</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.440076660832979e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-34247.83688360579</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1502.872158203125</v>
+        <v>0.691223438545129</v>
       </c>
       <c r="C7" t="n">
-        <v>121019.1577968608</v>
+        <v>115199.7976161482</v>
       </c>
       <c r="D7" t="n">
-        <v>230.1788088429098</v>
+        <v>220.0149850136657</v>
       </c>
       <c r="E7" t="n">
-        <v>1169998.88534851</v>
+        <v>128.1161254882813</v>
       </c>
       <c r="F7" t="n">
-        <v>137.8206188964844</v>
+        <v>1118336.168824463</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6870939614033235</v>
+        <v>1428.079829101563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6936426513164645</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.7056128386124653</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.953058105986419e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-16010.00412405976</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1527.792495117188</v>
+        <v>0.694547347433045</v>
       </c>
       <c r="C8" t="n">
-        <v>102561.4262994333</v>
+        <v>115929.5805467108</v>
       </c>
       <c r="D8" t="n">
-        <v>209.8306831726399</v>
+        <v>220.6675590853454</v>
       </c>
       <c r="E8" t="n">
-        <v>1066569.362566528</v>
+        <v>129.2144299316406</v>
       </c>
       <c r="F8" t="n">
-        <v>127.2425836181641</v>
+        <v>1121653.202830811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7022871312621228</v>
+        <v>1529.83466796875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7121136055202738</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.7013633031127738</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.852455532363658e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-65400.40631974566</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1500.688037109375</v>
+        <v>0.6951236353485527</v>
       </c>
       <c r="C9" t="n">
-        <v>109049.4111222087</v>
+        <v>115072.8961402487</v>
       </c>
       <c r="D9" t="n">
-        <v>214.1230144323469</v>
+        <v>219.3841562318924</v>
       </c>
       <c r="E9" t="n">
-        <v>1088387.282359619</v>
+        <v>123.9346679687501</v>
       </c>
       <c r="F9" t="n">
-        <v>127.0620532226562</v>
+        <v>1115129.666126709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6913977873040863</v>
+        <v>1498.875458984375</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6996986747629423</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.7053357945437666</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.520788160871141e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-32854.03295061208</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1498.901826171875</v>
+        <v>0.6785732312240345</v>
       </c>
       <c r="C10" t="n">
-        <v>110840.2323628806</v>
+        <v>121646.2389082117</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7359103601888</v>
+        <v>226.9092940916143</v>
       </c>
       <c r="E10" t="n">
-        <v>1116917.63236084</v>
+        <v>129.8767761230469</v>
       </c>
       <c r="F10" t="n">
-        <v>131.18765625</v>
+        <v>1153379.941867676</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6980334528084811</v>
+        <v>1530.6363671875</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7030169612309529</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.6853844002290658</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.072499035845891e+17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-29742.39715482539</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1492.165322265625</v>
+        <v>0.6940245533266926</v>
       </c>
       <c r="C11" t="n">
-        <v>111322.4768476289</v>
+        <v>111857.9136611875</v>
       </c>
       <c r="D11" t="n">
-        <v>218.2931440908075</v>
+        <v>218.412651512961</v>
       </c>
       <c r="E11" t="n">
-        <v>1109584.051413574</v>
+        <v>129.0815124511719</v>
       </c>
       <c r="F11" t="n">
-        <v>129.8045019531251</v>
+        <v>1110191.507640381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.693951064244161</v>
+        <v>1502.050625</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7029996916364791</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.7038210341437861</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.37217019918348e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-20125.25963038764</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH2</t>
         </is>
       </c>
     </row>
